--- a/refined_divisions/test_8.xlsx
+++ b/refined_divisions/test_8.xlsx
@@ -735,14 +735,14 @@
       <c r="B10" s="14" t="n"/>
       <c r="C10" s="14" t="n"/>
       <c r="D10" s="8" t="n"/>
-      <c r="E10" s="33" t="n"/>
+      <c r="E10" s="33" t="inlineStr"/>
       <c r="F10" s="34" t="n"/>
     </row>
     <row r="11" ht="12.95" customHeight="1" s="11">
       <c r="B11" s="14" t="n"/>
       <c r="C11" s="14" t="n"/>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="35" t="n"/>
+      <c r="E11" s="35" t="inlineStr"/>
       <c r="F11" s="36" t="n"/>
     </row>
     <row r="12" ht="12.95" customHeight="1" s="11">
@@ -813,7 +813,11 @@
       <c r="B18" s="14" t="n"/>
       <c r="C18" s="14" t="n"/>
       <c r="D18" s="8" t="n"/>
-      <c r="E18" s="37" t="n"/>
+      <c r="E18" s="37" t="inlineStr">
+        <is>
+          <t>Ryan O'Neil</t>
+        </is>
+      </c>
       <c r="F18" s="34" t="n"/>
       <c r="H18" s="14" t="n"/>
       <c r="I18" s="14" t="n"/>
@@ -823,7 +827,11 @@
       <c r="B19" s="14" t="n"/>
       <c r="C19" s="14" t="n"/>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="38" t="n"/>
+      <c r="E19" s="38" t="inlineStr">
+        <is>
+          <t>Performance Taekwon-Do</t>
+        </is>
+      </c>
       <c r="F19" s="36" t="n"/>
       <c r="H19" s="14" t="n"/>
       <c r="I19" s="14" t="n"/>
@@ -912,7 +920,7 @@
       <c r="B26" s="14" t="n"/>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="8" t="n"/>
-      <c r="E26" s="33" t="n"/>
+      <c r="E26" s="33" t="inlineStr"/>
       <c r="F26" s="34" t="n"/>
       <c r="H26" s="14" t="n"/>
       <c r="I26" s="14" t="n"/>
@@ -922,7 +930,7 @@
       <c r="B27" s="14" t="n"/>
       <c r="C27" s="14" t="n"/>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="35" t="n"/>
+      <c r="E27" s="35" t="inlineStr"/>
       <c r="F27" s="36" t="n"/>
       <c r="H27" s="14" t="n"/>
       <c r="I27" s="14" t="n"/>
@@ -1013,7 +1021,11 @@
       <c r="B34" s="14" t="n"/>
       <c r="C34" s="14" t="n"/>
       <c r="D34" s="8" t="n"/>
-      <c r="E34" s="37" t="n"/>
+      <c r="E34" s="37" t="inlineStr">
+        <is>
+          <t>Serena MacRury</t>
+        </is>
+      </c>
       <c r="F34" s="34" t="n"/>
       <c r="K34" s="12" t="n"/>
     </row>
@@ -1021,7 +1033,11 @@
       <c r="B35" s="14" t="n"/>
       <c r="C35" s="14" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="38" t="n"/>
+      <c r="E35" s="38" t="inlineStr">
+        <is>
+          <t>Performance Taekwon-Do</t>
+        </is>
+      </c>
       <c r="F35" s="36" t="n"/>
       <c r="K35" s="10" t="inlineStr">
         <is>
